--- a/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_SiTiFeCoNi_wt_pct_ML_mc_shared_relu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_SiTiFeCoNi_wt_pct_ML_mc_shared_relu.xlsx
@@ -521,16 +521,16 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>317.8238525390625</v>
+        <v>318.6872253417969</v>
       </c>
       <c r="J2" t="n">
-        <v>73.63346099853516</v>
+        <v>92.13562774658203</v>
       </c>
       <c r="K2" t="n">
-        <v>-221.3492279052734</v>
+        <v>-243.0913543701172</v>
       </c>
       <c r="L2" t="n">
-        <v>213.7979583740234</v>
+        <v>206.1768341064453</v>
       </c>
     </row>
     <row r="3">
@@ -559,16 +559,16 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>322.4417419433594</v>
+        <v>313.4693298339844</v>
       </c>
       <c r="J3" t="n">
-        <v>86.93634796142578</v>
+        <v>92.33110809326172</v>
       </c>
       <c r="K3" t="n">
-        <v>-301.6867370605469</v>
+        <v>-252.024658203125</v>
       </c>
       <c r="L3" t="n">
-        <v>273.8303527832031</v>
+        <v>214.6338043212891</v>
       </c>
     </row>
     <row r="4">
@@ -597,16 +597,16 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>329.8684997558594</v>
+        <v>311.4758911132812</v>
       </c>
       <c r="J4" t="n">
-        <v>79.486083984375</v>
+        <v>90.96747589111328</v>
       </c>
       <c r="K4" t="n">
-        <v>-356.0401306152344</v>
+        <v>-269.66748046875</v>
       </c>
       <c r="L4" t="n">
-        <v>262.83935546875</v>
+        <v>203.2590484619141</v>
       </c>
     </row>
     <row r="5">
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>334.7265319824219</v>
+        <v>325.5132141113281</v>
       </c>
       <c r="J5" t="n">
-        <v>103.6296615600586</v>
+        <v>94.16738891601562</v>
       </c>
       <c r="K5" t="n">
-        <v>-258.3350524902344</v>
+        <v>-254.1389770507812</v>
       </c>
       <c r="L5" t="n">
-        <v>195.5997619628906</v>
+        <v>198.6989440917969</v>
       </c>
     </row>
     <row r="6">
@@ -673,16 +673,16 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>366.039794921875</v>
+        <v>348.5685424804688</v>
       </c>
       <c r="J6" t="n">
-        <v>102.2330703735352</v>
+        <v>95.65753173828125</v>
       </c>
       <c r="K6" t="n">
-        <v>-196.9002227783203</v>
+        <v>-231.3960418701172</v>
       </c>
       <c r="L6" t="n">
-        <v>282.4845581054688</v>
+        <v>193.197998046875</v>
       </c>
     </row>
     <row r="7">
@@ -711,16 +711,16 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>379.287841796875</v>
+        <v>380.1463317871094</v>
       </c>
       <c r="J7" t="n">
-        <v>101.13916015625</v>
+        <v>99.80001831054688</v>
       </c>
       <c r="K7" t="n">
-        <v>-112.9473190307617</v>
+        <v>-150.5079040527344</v>
       </c>
       <c r="L7" t="n">
-        <v>245.8444976806641</v>
+        <v>219.1773986816406</v>
       </c>
     </row>
     <row r="8">
@@ -749,16 +749,16 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>340.3052062988281</v>
+        <v>372.3727111816406</v>
       </c>
       <c r="J8" t="n">
-        <v>76.11551666259766</v>
+        <v>98.9063720703125</v>
       </c>
       <c r="K8" t="n">
-        <v>-184.0476837158203</v>
+        <v>-177.8218231201172</v>
       </c>
       <c r="L8" t="n">
-        <v>270.6338500976562</v>
+        <v>216.5242156982422</v>
       </c>
     </row>
     <row r="9">
@@ -787,16 +787,16 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>347.3395080566406</v>
+        <v>370.1295166015625</v>
       </c>
       <c r="J9" t="n">
-        <v>96.12306213378906</v>
+        <v>98.72077941894531</v>
       </c>
       <c r="K9" t="n">
-        <v>-180.71533203125</v>
+        <v>-186.4648132324219</v>
       </c>
       <c r="L9" t="n">
-        <v>264.4174499511719</v>
+        <v>204.9769744873047</v>
       </c>
     </row>
     <row r="10">
@@ -825,16 +825,16 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>382.25048828125</v>
+        <v>370.0080261230469</v>
       </c>
       <c r="J10" t="n">
-        <v>85.03831481933594</v>
+        <v>95.00696563720703</v>
       </c>
       <c r="K10" t="n">
-        <v>-196.6419830322266</v>
+        <v>-195.4590301513672</v>
       </c>
       <c r="L10" t="n">
-        <v>243.2912139892578</v>
+        <v>195.6719360351562</v>
       </c>
     </row>
     <row r="11">
@@ -863,16 +863,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>369.3707580566406</v>
+        <v>378.6177062988281</v>
       </c>
       <c r="J11" t="n">
-        <v>86.07089996337891</v>
+        <v>95.61617279052734</v>
       </c>
       <c r="K11" t="n">
-        <v>-252.007568359375</v>
+        <v>-190.5407409667969</v>
       </c>
       <c r="L11" t="n">
-        <v>222.6396636962891</v>
+        <v>188.3692626953125</v>
       </c>
     </row>
     <row r="12">
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>409.7446594238281</v>
+        <v>402.6215515136719</v>
       </c>
       <c r="J12" t="n">
-        <v>120.2567291259766</v>
+        <v>96.37905120849609</v>
       </c>
       <c r="K12" t="n">
-        <v>-162.7814483642578</v>
+        <v>-177.3629455566406</v>
       </c>
       <c r="L12" t="n">
-        <v>215.7599792480469</v>
+        <v>183.3445892333984</v>
       </c>
     </row>
     <row r="13">
@@ -939,16 +939,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>489.4926452636719</v>
+        <v>456.2952575683594</v>
       </c>
       <c r="J13" t="n">
-        <v>136.4409790039062</v>
+        <v>103.2097778320312</v>
       </c>
       <c r="K13" t="n">
-        <v>-118.16064453125</v>
+        <v>-150.1405029296875</v>
       </c>
       <c r="L13" t="n">
-        <v>186.0925140380859</v>
+        <v>184.253662109375</v>
       </c>
     </row>
     <row r="14">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>521.2230834960938</v>
+        <v>476.5828247070312</v>
       </c>
       <c r="J14" t="n">
-        <v>118.5800399780273</v>
+        <v>105.4573516845703</v>
       </c>
       <c r="K14" t="n">
-        <v>52.73554992675781</v>
+        <v>-64.36842346191406</v>
       </c>
       <c r="L14" t="n">
-        <v>348.319580078125</v>
+        <v>227.1935424804688</v>
       </c>
     </row>
     <row r="15">
@@ -1015,16 +1015,16 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>482.1872253417969</v>
+        <v>478.4653625488281</v>
       </c>
       <c r="J15" t="n">
-        <v>117.1328811645508</v>
+        <v>107.7421493530273</v>
       </c>
       <c r="K15" t="n">
-        <v>-15.95488452911377</v>
+        <v>-63.0233154296875</v>
       </c>
       <c r="L15" t="n">
-        <v>256.0242919921875</v>
+        <v>244.5395965576172</v>
       </c>
     </row>
     <row r="16">
@@ -1053,16 +1053,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>517.467529296875</v>
+        <v>474.5002746582031</v>
       </c>
       <c r="J16" t="n">
-        <v>118.9239654541016</v>
+        <v>108.721923828125</v>
       </c>
       <c r="K16" t="n">
-        <v>-49.00054550170898</v>
+        <v>-77.59831237792969</v>
       </c>
       <c r="L16" t="n">
-        <v>200.2890167236328</v>
+        <v>221.4620361328125</v>
       </c>
     </row>
     <row r="17">
@@ -1091,16 +1091,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>515.1902465820312</v>
+        <v>474.9436950683594</v>
       </c>
       <c r="J17" t="n">
-        <v>128.3565063476562</v>
+        <v>109.7739334106445</v>
       </c>
       <c r="K17" t="n">
-        <v>-20.22343635559082</v>
+        <v>-88.62515258789062</v>
       </c>
       <c r="L17" t="n">
-        <v>286.162841796875</v>
+        <v>213.5730133056641</v>
       </c>
     </row>
     <row r="18">
@@ -1129,16 +1129,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>478.9009094238281</v>
+        <v>474.6982727050781</v>
       </c>
       <c r="J18" t="n">
-        <v>115.4002075195312</v>
+        <v>109.4104309082031</v>
       </c>
       <c r="K18" t="n">
-        <v>-99.0645751953125</v>
+        <v>-99.77675628662109</v>
       </c>
       <c r="L18" t="n">
-        <v>214.8311920166016</v>
+        <v>209.5342559814453</v>
       </c>
     </row>
     <row r="19">
@@ -1167,16 +1167,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>511.6852111816406</v>
+        <v>478.7715148925781</v>
       </c>
       <c r="J19" t="n">
-        <v>114.4397201538086</v>
+        <v>104.3318939208984</v>
       </c>
       <c r="K19" t="n">
-        <v>-154.1185760498047</v>
+        <v>-106.9739761352539</v>
       </c>
       <c r="L19" t="n">
-        <v>273.5077819824219</v>
+        <v>192.4299621582031</v>
       </c>
     </row>
     <row r="20">
@@ -1205,16 +1205,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>581.3063354492188</v>
+        <v>501.5433959960938</v>
       </c>
       <c r="J20" t="n">
-        <v>121.7311553955078</v>
+        <v>111.2644424438477</v>
       </c>
       <c r="K20" t="n">
-        <v>-105.3832931518555</v>
+        <v>-108.7487564086914</v>
       </c>
       <c r="L20" t="n">
-        <v>264.1103210449219</v>
+        <v>176.7433471679688</v>
       </c>
     </row>
     <row r="21">
@@ -1243,16 +1243,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>578.2283935546875</v>
+        <v>537.73388671875</v>
       </c>
       <c r="J21" t="n">
-        <v>107.5466613769531</v>
+        <v>113.0094375610352</v>
       </c>
       <c r="K21" t="n">
-        <v>-64.84633636474609</v>
+        <v>-101.4326629638672</v>
       </c>
       <c r="L21" t="n">
-        <v>181.4194183349609</v>
+        <v>167.1293182373047</v>
       </c>
     </row>
     <row r="22">
@@ -1281,16 +1281,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>611.7636108398438</v>
+        <v>586.4158935546875</v>
       </c>
       <c r="J22" t="n">
-        <v>86.18278503417969</v>
+        <v>109.5971527099609</v>
       </c>
       <c r="K22" t="n">
-        <v>-98.34960174560547</v>
+        <v>-80.40445709228516</v>
       </c>
       <c r="L22" t="n">
-        <v>204.0535125732422</v>
+        <v>170.077392578125</v>
       </c>
     </row>
     <row r="23">
@@ -1319,16 +1319,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>647.7811889648438</v>
+        <v>617.8159790039062</v>
       </c>
       <c r="J23" t="n">
-        <v>86.77387237548828</v>
+        <v>100.5641632080078</v>
       </c>
       <c r="K23" t="n">
-        <v>33.85032272338867</v>
+        <v>39.43755722045898</v>
       </c>
       <c r="L23" t="n">
-        <v>374.5757751464844</v>
+        <v>259.3679809570312</v>
       </c>
     </row>
     <row r="24">
@@ -1357,16 +1357,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>664.8428344726562</v>
+        <v>624.5982055664062</v>
       </c>
       <c r="J24" t="n">
-        <v>67.91994476318359</v>
+        <v>106.0140380859375</v>
       </c>
       <c r="K24" t="n">
-        <v>75.90999603271484</v>
+        <v>36.32210159301758</v>
       </c>
       <c r="L24" t="n">
-        <v>453.1517333984375</v>
+        <v>246.0847015380859</v>
       </c>
     </row>
     <row r="25">
@@ -1395,16 +1395,16 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>626.8391723632812</v>
+        <v>629.9265747070312</v>
       </c>
       <c r="J25" t="n">
-        <v>104.2173614501953</v>
+        <v>107.1975708007812</v>
       </c>
       <c r="K25" t="n">
-        <v>61.31492233276367</v>
+        <v>20.99221611022949</v>
       </c>
       <c r="L25" t="n">
-        <v>369.7323608398438</v>
+        <v>234.3874053955078</v>
       </c>
     </row>
     <row r="26">
@@ -1433,16 +1433,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>665.8666381835938</v>
+        <v>624.6902465820312</v>
       </c>
       <c r="J26" t="n">
-        <v>76.42812347412109</v>
+        <v>110.1408615112305</v>
       </c>
       <c r="K26" t="n">
-        <v>18.99138450622559</v>
+        <v>15.14505004882812</v>
       </c>
       <c r="L26" t="n">
-        <v>303.370849609375</v>
+        <v>231.5867156982422</v>
       </c>
     </row>
     <row r="27">
@@ -1471,16 +1471,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>633.7288208007812</v>
+        <v>613.7736206054688</v>
       </c>
       <c r="J27" t="n">
-        <v>82.95261383056641</v>
+        <v>112.9101486206055</v>
       </c>
       <c r="K27" t="n">
-        <v>-10.92212009429932</v>
+        <v>-6.243053913116455</v>
       </c>
       <c r="L27" t="n">
-        <v>224.8314666748047</v>
+        <v>204.3727874755859</v>
       </c>
     </row>
     <row r="28">
@@ -1509,16 +1509,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>649.2556762695312</v>
+        <v>608.848388671875</v>
       </c>
       <c r="J28" t="n">
-        <v>80.91968536376953</v>
+        <v>112.9521408081055</v>
       </c>
       <c r="K28" t="n">
-        <v>99.44039916992188</v>
+        <v>-14.23868846893311</v>
       </c>
       <c r="L28" t="n">
-        <v>306.1608581542969</v>
+        <v>196.2612915039062</v>
       </c>
     </row>
     <row r="29">
@@ -1547,16 +1547,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>667.0731811523438</v>
+        <v>598.6251220703125</v>
       </c>
       <c r="J29" t="n">
-        <v>103.0126037597656</v>
+        <v>112.4960021972656</v>
       </c>
       <c r="K29" t="n">
-        <v>-3.220752716064453</v>
+        <v>-36.99663925170898</v>
       </c>
       <c r="L29" t="n">
-        <v>224.3038024902344</v>
+        <v>178.9323577880859</v>
       </c>
     </row>
     <row r="30">
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>619.7727661132812</v>
+        <v>611.023193359375</v>
       </c>
       <c r="J30" t="n">
-        <v>104.9107360839844</v>
+        <v>107.8473205566406</v>
       </c>
       <c r="K30" t="n">
-        <v>-82.06215667724609</v>
+        <v>-43.08584594726562</v>
       </c>
       <c r="L30" t="n">
-        <v>213.6753082275391</v>
+        <v>163.1388397216797</v>
       </c>
     </row>
     <row r="31">
@@ -1623,16 +1623,16 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>627.3012084960938</v>
+        <v>623.3649291992188</v>
       </c>
       <c r="J31" t="n">
-        <v>78.84304046630859</v>
+        <v>103.1085968017578</v>
       </c>
       <c r="K31" t="n">
-        <v>-49.96950912475586</v>
+        <v>-42.56905364990234</v>
       </c>
       <c r="L31" t="n">
-        <v>191.2770385742188</v>
+        <v>148.1613311767578</v>
       </c>
     </row>
     <row r="32">
@@ -1661,16 +1661,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>704.8233032226562</v>
+        <v>704.591552734375</v>
       </c>
       <c r="J32" t="n">
-        <v>51.99882507324219</v>
+        <v>60.82517242431641</v>
       </c>
       <c r="K32" t="n">
-        <v>190.4600982666016</v>
+        <v>133.4376068115234</v>
       </c>
       <c r="L32" t="n">
-        <v>392.4675598144531</v>
+        <v>254.6901550292969</v>
       </c>
     </row>
     <row r="33">
@@ -1699,16 +1699,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>696.9336547851562</v>
+        <v>708.7910766601562</v>
       </c>
       <c r="J33" t="n">
-        <v>93.63525390625</v>
+        <v>68.9261474609375</v>
       </c>
       <c r="K33" t="n">
-        <v>208.6379241943359</v>
+        <v>124.5047912597656</v>
       </c>
       <c r="L33" t="n">
-        <v>326.6686401367188</v>
+        <v>248.9712066650391</v>
       </c>
     </row>
     <row r="34">
@@ -1737,16 +1737,16 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>733.2354125976562</v>
+        <v>713.9083251953125</v>
       </c>
       <c r="J34" t="n">
-        <v>66.10035705566406</v>
+        <v>68.69810485839844</v>
       </c>
       <c r="K34" t="n">
-        <v>186.5174102783203</v>
+        <v>96.81697082519531</v>
       </c>
       <c r="L34" t="n">
-        <v>292.8790283203125</v>
+        <v>222.1663208007812</v>
       </c>
     </row>
     <row r="35">
@@ -1775,16 +1775,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>694.4769897460938</v>
+        <v>713.28564453125</v>
       </c>
       <c r="J35" t="n">
-        <v>83.34060668945312</v>
+        <v>71.98130035400391</v>
       </c>
       <c r="K35" t="n">
-        <v>135.371337890625</v>
+        <v>105.250617980957</v>
       </c>
       <c r="L35" t="n">
-        <v>318.0233154296875</v>
+        <v>224.5458526611328</v>
       </c>
     </row>
     <row r="36">
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>690.6799926757812</v>
+        <v>706.9736938476562</v>
       </c>
       <c r="J36" t="n">
-        <v>53.55478668212891</v>
+        <v>70.88270568847656</v>
       </c>
       <c r="K36" t="n">
-        <v>47.12047958374023</v>
+        <v>83.17890930175781</v>
       </c>
       <c r="L36" t="n">
-        <v>355.9480285644531</v>
+        <v>219.6403350830078</v>
       </c>
     </row>
     <row r="37">
@@ -1851,16 +1851,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>689.9876098632812</v>
+        <v>694.516845703125</v>
       </c>
       <c r="J37" t="n">
-        <v>46.20579528808594</v>
+        <v>75.49013519287109</v>
       </c>
       <c r="K37" t="n">
-        <v>78.52156829833984</v>
+        <v>57.05133438110352</v>
       </c>
       <c r="L37" t="n">
-        <v>342.0701293945312</v>
+        <v>188.5924835205078</v>
       </c>
     </row>
     <row r="38">
@@ -1889,16 +1889,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>725.1061401367188</v>
+        <v>689.4343872070312</v>
       </c>
       <c r="J38" t="n">
-        <v>79.19441986083984</v>
+        <v>80.22848510742188</v>
       </c>
       <c r="K38" t="n">
-        <v>83.42581939697266</v>
+        <v>36.80949020385742</v>
       </c>
       <c r="L38" t="n">
-        <v>299.1250610351562</v>
+        <v>173.4534454345703</v>
       </c>
     </row>
     <row r="39">
@@ -1927,16 +1927,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>707.5886840820312</v>
+        <v>679.6990356445312</v>
       </c>
       <c r="J39" t="n">
-        <v>61.22694778442383</v>
+        <v>84.58450317382812</v>
       </c>
       <c r="K39" t="n">
-        <v>20.97189521789551</v>
+        <v>18.91288566589355</v>
       </c>
       <c r="L39" t="n">
-        <v>273.2148132324219</v>
+        <v>161.6677551269531</v>
       </c>
     </row>
     <row r="40">
@@ -1965,16 +1965,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>652.3585815429688</v>
+        <v>664.3561401367188</v>
       </c>
       <c r="J40" t="n">
-        <v>59.68718338012695</v>
+        <v>90.97011566162109</v>
       </c>
       <c r="K40" t="n">
-        <v>28.6770191192627</v>
+        <v>12.09234046936035</v>
       </c>
       <c r="L40" t="n">
-        <v>168.4801330566406</v>
+        <v>144.16943359375</v>
       </c>
     </row>
     <row r="41">
@@ -2003,16 +2003,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>733.5735473632812</v>
+        <v>723.402099609375</v>
       </c>
       <c r="J41" t="n">
-        <v>85.35785675048828</v>
+        <v>63.41815567016602</v>
       </c>
       <c r="K41" t="n">
-        <v>249.96875</v>
+        <v>202.3030700683594</v>
       </c>
       <c r="L41" t="n">
-        <v>254.4220733642578</v>
+        <v>229.3022155761719</v>
       </c>
     </row>
     <row r="42">
@@ -2041,16 +2041,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>767.5914916992188</v>
+        <v>730.3956298828125</v>
       </c>
       <c r="J42" t="n">
-        <v>81.42388916015625</v>
+        <v>70.80520629882812</v>
       </c>
       <c r="K42" t="n">
-        <v>126.1173324584961</v>
+        <v>192.8011169433594</v>
       </c>
       <c r="L42" t="n">
-        <v>206.4784240722656</v>
+        <v>227.7352447509766</v>
       </c>
     </row>
     <row r="43">
@@ -2079,16 +2079,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>744.7385864257812</v>
+        <v>736.8274536132812</v>
       </c>
       <c r="J43" t="n">
-        <v>105.4549407958984</v>
+        <v>70.53807067871094</v>
       </c>
       <c r="K43" t="n">
-        <v>219.9972381591797</v>
+        <v>179.8202819824219</v>
       </c>
       <c r="L43" t="n">
-        <v>324.8683166503906</v>
+        <v>220.6701812744141</v>
       </c>
     </row>
     <row r="44">
@@ -2117,16 +2117,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>762.415283203125</v>
+        <v>741.2568969726562</v>
       </c>
       <c r="J44" t="n">
-        <v>91.27037048339844</v>
+        <v>73.31135559082031</v>
       </c>
       <c r="K44" t="n">
-        <v>207.369140625</v>
+        <v>161.0923156738281</v>
       </c>
       <c r="L44" t="n">
-        <v>307.7619323730469</v>
+        <v>224.3245086669922</v>
       </c>
     </row>
     <row r="45">
@@ -2155,16 +2155,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>736.1117553710938</v>
+        <v>744.0759887695312</v>
       </c>
       <c r="J45" t="n">
-        <v>109.0566482543945</v>
+        <v>72.21672058105469</v>
       </c>
       <c r="K45" t="n">
-        <v>166.0393981933594</v>
+        <v>146.1654052734375</v>
       </c>
       <c r="L45" t="n">
-        <v>311.2266540527344</v>
+        <v>211.8718414306641</v>
       </c>
     </row>
     <row r="46">
@@ -2193,16 +2193,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>751.9052124023438</v>
+        <v>735.700439453125</v>
       </c>
       <c r="J46" t="n">
-        <v>85.61972808837891</v>
+        <v>72.72364044189453</v>
       </c>
       <c r="K46" t="n">
-        <v>191.9745635986328</v>
+        <v>116.8610382080078</v>
       </c>
       <c r="L46" t="n">
-        <v>209.2928924560547</v>
+        <v>196.0319061279297</v>
       </c>
     </row>
     <row r="47">
@@ -2231,16 +2231,16 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>743.0116577148438</v>
+        <v>724.24267578125</v>
       </c>
       <c r="J47" t="n">
-        <v>82.37776184082031</v>
+        <v>70.83198547363281</v>
       </c>
       <c r="K47" t="n">
-        <v>100.2297668457031</v>
+        <v>93.65135192871094</v>
       </c>
       <c r="L47" t="n">
-        <v>296.9484252929688</v>
+        <v>179.2935943603516</v>
       </c>
     </row>
     <row r="48">
@@ -2269,16 +2269,16 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>746.4338989257812</v>
+        <v>707.2656860351562</v>
       </c>
       <c r="J48" t="n">
-        <v>93.30642700195312</v>
+        <v>71.58197784423828</v>
       </c>
       <c r="K48" t="n">
-        <v>83.80577087402344</v>
+        <v>62.6893310546875</v>
       </c>
       <c r="L48" t="n">
-        <v>195.3915863037109</v>
+        <v>155.7615356445312</v>
       </c>
     </row>
     <row r="49">
@@ -2307,16 +2307,16 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>693.40234375</v>
+        <v>683.5162353515625</v>
       </c>
       <c r="J49" t="n">
-        <v>56.90036010742188</v>
+        <v>72.59363555908203</v>
       </c>
       <c r="K49" t="n">
-        <v>68.46257019042969</v>
+        <v>41.34542465209961</v>
       </c>
       <c r="L49" t="n">
-        <v>158.2258605957031</v>
+        <v>140.4083557128906</v>
       </c>
     </row>
     <row r="50">
@@ -2345,16 +2345,16 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>707.0845336914062</v>
+        <v>690.3563842773438</v>
       </c>
       <c r="J50" t="n">
-        <v>98.23754119873047</v>
+        <v>94.17604064941406</v>
       </c>
       <c r="K50" t="n">
-        <v>367.3316345214844</v>
+        <v>217.0012817382812</v>
       </c>
       <c r="L50" t="n">
-        <v>217.3160858154297</v>
+        <v>201.7010040283203</v>
       </c>
     </row>
     <row r="51">
@@ -2383,16 +2383,16 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>728.883056640625</v>
+        <v>701.5420532226562</v>
       </c>
       <c r="J51" t="n">
-        <v>69.36663055419922</v>
+        <v>96.03184509277344</v>
       </c>
       <c r="K51" t="n">
-        <v>256.6994934082031</v>
+        <v>203.1072540283203</v>
       </c>
       <c r="L51" t="n">
-        <v>228.80908203125</v>
+        <v>205.35693359375</v>
       </c>
     </row>
     <row r="52">
@@ -2421,16 +2421,16 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>727.8551635742188</v>
+        <v>710.5294799804688</v>
       </c>
       <c r="J52" t="n">
-        <v>82.56970977783203</v>
+        <v>94.75185394287109</v>
       </c>
       <c r="K52" t="n">
-        <v>250.6986236572266</v>
+        <v>197.4593658447266</v>
       </c>
       <c r="L52" t="n">
-        <v>172.3012084960938</v>
+        <v>209.13037109375</v>
       </c>
     </row>
     <row r="53">
@@ -2459,16 +2459,16 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>689.8623657226562</v>
+        <v>722.752685546875</v>
       </c>
       <c r="J53" t="n">
-        <v>108.6844787597656</v>
+        <v>88.15023803710938</v>
       </c>
       <c r="K53" t="n">
-        <v>220.5402374267578</v>
+        <v>192.6751098632812</v>
       </c>
       <c r="L53" t="n">
-        <v>301.4147033691406</v>
+        <v>215.1563262939453</v>
       </c>
     </row>
     <row r="54">
@@ -2497,16 +2497,16 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>730.787109375</v>
+        <v>729.266845703125</v>
       </c>
       <c r="J54" t="n">
-        <v>86.96053314208984</v>
+        <v>83.11641693115234</v>
       </c>
       <c r="K54" t="n">
-        <v>232.9768524169922</v>
+        <v>169.5834045410156</v>
       </c>
       <c r="L54" t="n">
-        <v>292.0672302246094</v>
+        <v>207.6918334960938</v>
       </c>
     </row>
     <row r="55">
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>738.24609375</v>
+        <v>733.7655029296875</v>
       </c>
       <c r="J55" t="n">
-        <v>105.5720062255859</v>
+        <v>78.83020782470703</v>
       </c>
       <c r="K55" t="n">
-        <v>162.5792388916016</v>
+        <v>147.6502227783203</v>
       </c>
       <c r="L55" t="n">
-        <v>177.3114471435547</v>
+        <v>209.9519805908203</v>
       </c>
     </row>
     <row r="56">
@@ -2573,16 +2573,16 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>731.6621704101562</v>
+        <v>729.6950073242188</v>
       </c>
       <c r="J56" t="n">
-        <v>105.5825042724609</v>
+        <v>73.32240295410156</v>
       </c>
       <c r="K56" t="n">
-        <v>167.5583343505859</v>
+        <v>132.5780792236328</v>
       </c>
       <c r="L56" t="n">
-        <v>270.8073120117188</v>
+        <v>188.98876953125</v>
       </c>
     </row>
     <row r="57">
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>710.107421875</v>
+        <v>715.1369018554688</v>
       </c>
       <c r="J57" t="n">
-        <v>88.70895385742188</v>
+        <v>67.97024536132812</v>
       </c>
       <c r="K57" t="n">
-        <v>170.5145568847656</v>
+        <v>104.1390151977539</v>
       </c>
       <c r="L57" t="n">
-        <v>202.6325836181641</v>
+        <v>169.9705047607422</v>
       </c>
     </row>
     <row r="58">
@@ -2649,16 +2649,16 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>704.139404296875</v>
+        <v>681.1517944335938</v>
       </c>
       <c r="J58" t="n">
-        <v>72.72795867919922</v>
+        <v>66.67387390136719</v>
       </c>
       <c r="K58" t="n">
-        <v>85.54733276367188</v>
+        <v>65.88984680175781</v>
       </c>
       <c r="L58" t="n">
-        <v>218.7809906005859</v>
+        <v>145.1523895263672</v>
       </c>
     </row>
     <row r="59">
@@ -2687,16 +2687,16 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>680.457275390625</v>
+        <v>610.2589111328125</v>
       </c>
       <c r="J59" t="n">
-        <v>124.9713592529297</v>
+        <v>125.3602905273438</v>
       </c>
       <c r="K59" t="n">
-        <v>260.3063659667969</v>
+        <v>210.2518157958984</v>
       </c>
       <c r="L59" t="n">
-        <v>221.2645874023438</v>
+        <v>182.3431091308594</v>
       </c>
     </row>
     <row r="60">
@@ -2725,16 +2725,16 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>643.1265258789062</v>
+        <v>627.4197998046875</v>
       </c>
       <c r="J60" t="n">
-        <v>148.3927917480469</v>
+        <v>123.2985382080078</v>
       </c>
       <c r="K60" t="n">
-        <v>163.6374359130859</v>
+        <v>203.9587554931641</v>
       </c>
       <c r="L60" t="n">
-        <v>206.013427734375</v>
+        <v>188.3456420898438</v>
       </c>
     </row>
     <row r="61">
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>687.831787109375</v>
+        <v>655.7418212890625</v>
       </c>
       <c r="J61" t="n">
-        <v>172.7212371826172</v>
+        <v>117.5685348510742</v>
       </c>
       <c r="K61" t="n">
-        <v>185.5123291015625</v>
+        <v>193.83544921875</v>
       </c>
       <c r="L61" t="n">
-        <v>318.2284851074219</v>
+        <v>200.9112548828125</v>
       </c>
     </row>
     <row r="62">
@@ -2801,16 +2801,16 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>678.6729736328125</v>
+        <v>686.5816650390625</v>
       </c>
       <c r="J62" t="n">
-        <v>86.25513458251953</v>
+        <v>111.9349670410156</v>
       </c>
       <c r="K62" t="n">
-        <v>163.3565216064453</v>
+        <v>193.0666351318359</v>
       </c>
       <c r="L62" t="n">
-        <v>208.7240600585938</v>
+        <v>205.6712799072266</v>
       </c>
     </row>
     <row r="63">
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>723.1287231445312</v>
+        <v>704.606689453125</v>
       </c>
       <c r="J63" t="n">
-        <v>167.35205078125</v>
+        <v>99.95735168457031</v>
       </c>
       <c r="K63" t="n">
-        <v>146.588134765625</v>
+        <v>174.3867340087891</v>
       </c>
       <c r="L63" t="n">
-        <v>221.0743713378906</v>
+        <v>212.4677276611328</v>
       </c>
     </row>
     <row r="64">
@@ -2877,16 +2877,16 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>761.0117797851562</v>
+        <v>716.1614379882812</v>
       </c>
       <c r="J64" t="n">
-        <v>108.8760604858398</v>
+        <v>87.68508148193359</v>
       </c>
       <c r="K64" t="n">
-        <v>174.4870452880859</v>
+        <v>154.6940307617188</v>
       </c>
       <c r="L64" t="n">
-        <v>252.8792724609375</v>
+        <v>209.1165313720703</v>
       </c>
     </row>
     <row r="65">
@@ -2915,16 +2915,16 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>709.8352661132812</v>
+        <v>705.4443969726562</v>
       </c>
       <c r="J65" t="n">
-        <v>92.28960418701172</v>
+        <v>76.12870025634766</v>
       </c>
       <c r="K65" t="n">
-        <v>88.34337615966797</v>
+        <v>137.6891479492188</v>
       </c>
       <c r="L65" t="n">
-        <v>179.6537780761719</v>
+        <v>194.5697326660156</v>
       </c>
     </row>
     <row r="66">
@@ -2953,16 +2953,16 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>614.9353637695312</v>
+        <v>540.68115234375</v>
       </c>
       <c r="J66" t="n">
-        <v>90.31756591796875</v>
+        <v>124.6260452270508</v>
       </c>
       <c r="K66" t="n">
-        <v>111.2737808227539</v>
+        <v>194.1944427490234</v>
       </c>
       <c r="L66" t="n">
-        <v>149.5250854492188</v>
+        <v>188.8901519775391</v>
       </c>
     </row>
     <row r="67">
@@ -2991,16 +2991,16 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>608.4215698242188</v>
+        <v>569.6703491210938</v>
       </c>
       <c r="J67" t="n">
-        <v>118.0829162597656</v>
+        <v>127.3940124511719</v>
       </c>
       <c r="K67" t="n">
-        <v>201.4390258789062</v>
+        <v>195.0570068359375</v>
       </c>
       <c r="L67" t="n">
-        <v>248.55419921875</v>
+        <v>190.5942535400391</v>
       </c>
     </row>
     <row r="68">
@@ -3029,16 +3029,16 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>657.6817016601562</v>
+        <v>613.4551391601562</v>
       </c>
       <c r="J68" t="n">
-        <v>142.7268676757812</v>
+        <v>119.7732315063477</v>
       </c>
       <c r="K68" t="n">
-        <v>225.7693481445312</v>
+        <v>199.7464447021484</v>
       </c>
       <c r="L68" t="n">
-        <v>224.8164367675781</v>
+        <v>205.2830352783203</v>
       </c>
     </row>
     <row r="69">
@@ -3067,16 +3067,16 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>708.6410522460938</v>
+        <v>654.657470703125</v>
       </c>
       <c r="J69" t="n">
-        <v>111.4093627929688</v>
+        <v>120.5196990966797</v>
       </c>
       <c r="K69" t="n">
-        <v>218.3145904541016</v>
+        <v>197.4785003662109</v>
       </c>
       <c r="L69" t="n">
-        <v>157.9886779785156</v>
+        <v>203.9383850097656</v>
       </c>
     </row>
     <row r="70">
@@ -3105,16 +3105,16 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>721.512451171875</v>
+        <v>688.5375366210938</v>
       </c>
       <c r="J70" t="n">
-        <v>154.4310913085938</v>
+        <v>107.2228546142578</v>
       </c>
       <c r="K70" t="n">
-        <v>272.584716796875</v>
+        <v>175.1408386230469</v>
       </c>
       <c r="L70" t="n">
-        <v>256.0525512695312</v>
+        <v>205.7403411865234</v>
       </c>
     </row>
   </sheetData>
